--- a/biology/Médecine/Fundus/Fundus.xlsx
+++ b/biology/Médecine/Fundus/Fundus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fundus (pron. /fɔ̃dys/) ou le fond de l'estomac ou encore la grosse tubérosité de l'estomac est la partie supérieure de l'estomac.
 </t>
@@ -511,7 +523,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est la partie la plus haute de l'estomac, située juste au-dessus d'un plan passant par l'incisure cardiale et le col d'Helvetius, au-dessus du corps de l'estomac. Il est surmonté par le diaphragme et, grâce à sa forme de dôme, est bien adapté à sa concavité.
 </t>
@@ -542,7 +556,9 @@
           <t>Glandes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est dans le fundus que sont localisées des cellules pariétales qui sont des glandes sécrétant de l'acide chlorhydrique, de la pepsine ainsi qu'une glycoprotéine dite facteur intrinsèque. Ce dernier est indispensable à l'absorption de la vitamine B12 (facteur extrinsèque) lorsque cette dernière est présente à des concentrations physiologiques.
 </t>
@@ -573,7 +589,9 @@
           <t>Histologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dans le fundus, l’épithélium forme des cryptes au fond desquelles on trouve des glandes productrices de suc gastrique. 
 Ces glandes sont composées de 3 formes de cellules sécrétrices :
@@ -607,7 +625,9 @@
           <t>Aspect radiologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fundus correspond radiologiquement à la poche à air gastrique, région de l'estomac pleine d'air, qui, de ce fait, ne peut être atteinte par le produit de contraste.
 </t>
@@ -638,7 +658,9 @@
           <t>Projection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sa projection sur la paroi thoracique prend le nom d’espace semi-lunaire de Traube délimité comme suit :
 partie inférieure: marge du 9ème cartilage costal et du processus xiphoïde du sternum ;
@@ -671,7 +693,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa fonction est le stockage des aliments non digérés, les substances peuvent y rester plus d'une heure. La fonction de la poche à air gastrique est d'empêcher le reflux du contenu gastrique dans l'œsophage.
 </t>
